--- a/Новая папка/Лист Microsoft Excel.xlsx
+++ b/Новая папка/Лист Microsoft Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyTrening\Новая папка\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F35C17-7F83-4A34-87BC-FE5046E842C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3840" yWindow="4110" windowWidth="23040" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,140 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+  <si>
+    <t>Заказ</t>
+  </si>
+  <si>
+    <t>Отгрузка (в ед. хранения)</t>
+  </si>
+  <si>
+    <t>Контрагент ЧЛ</t>
+  </si>
+  <si>
+    <t>Осталось отгрузить</t>
+  </si>
+  <si>
+    <t>Со склада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул </t>
+  </si>
+  <si>
+    <t>Номенклатура</t>
+  </si>
+  <si>
+    <t>Заказ покупателя МКП00020134 от 28.10.2021 9:24:46</t>
+  </si>
+  <si>
+    <t>ПроектПрактик</t>
+  </si>
+  <si>
+    <t>636.2000.14</t>
+  </si>
+  <si>
+    <t>Linear Штанга для одежды 10х30 c демпфером, L=2000мм, отделка алюминий</t>
+  </si>
+  <si>
+    <t>В пути из Италии, у вас думаю, что к 13/12</t>
+  </si>
+  <si>
+    <t>HW.012.2206.3000.PR</t>
+  </si>
+  <si>
+    <t>Профиль 2206 для LED подсветки врезной, L=3000 мм, отделка алюминий</t>
+  </si>
+  <si>
+    <t>сроки вторая половина декабря приход в МСК</t>
+  </si>
+  <si>
+    <t>HW.012.2206.PR-Black</t>
+  </si>
+  <si>
+    <t>Профиль 2206 для LED подсветки врезной, L=3000 мм, отделка алюминий черный (анодировка)</t>
+  </si>
+  <si>
+    <t>HW.012.2206.1506.FR.D3.Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Профиль-рассеиватель 2206/1506  для LED подсветки, L=3000мм, отделка черный матовый , тип "clip"    </t>
+  </si>
+  <si>
+    <t>Заказ покупателя МКП00020500 от 02.11.2021 8:58:57</t>
+  </si>
+  <si>
+    <t>4463.31P.4700</t>
+  </si>
+  <si>
+    <t>Gola Trend Профиль вертикальный боковой, для 16мм ДСП, L=4700мм, отделка алюминий (анодировка)</t>
+  </si>
+  <si>
+    <t>должен поступить на склад в первой половине декабря</t>
+  </si>
+  <si>
+    <t>5000DIST16AR</t>
+  </si>
+  <si>
+    <t>Расширитель 2 мм, для направляющих Dynamic XP (серия сеток Ellite)</t>
+  </si>
+  <si>
+    <t>ожидаем в декабре поступление на цетральный склад</t>
+  </si>
+  <si>
+    <t>Заказ покупателя МКП00021477 от 16.11.2021 13:00:17</t>
+  </si>
+  <si>
+    <t>640.2000.93</t>
+  </si>
+  <si>
+    <t>Linear Штанга для одежды 10х30 c демпфером, L=2000мм, отделка серый металл</t>
+  </si>
+  <si>
+    <t>к 29/11</t>
+  </si>
+  <si>
+    <t>807.00.01.00.SX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крышечка декоративная для подвески арт.807 белая, левая  </t>
+  </si>
+  <si>
+    <t>807.00.01.00.DX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крышечка декоративная для подвески арт.807 белая, правая </t>
+  </si>
+  <si>
+    <t>807.XL.01.00.00</t>
+  </si>
+  <si>
+    <t>Крышечка декоративная для подвески арт.807.XL белая</t>
+  </si>
+  <si>
+    <t>PD.A.600.9016#PSP/9010/0567/3</t>
+  </si>
+  <si>
+    <t>Поддон гигиенический в базу 600/16, модель "А", отделка белый бархат (матовый)</t>
+  </si>
+  <si>
+    <t>DRB.21F/60SST</t>
+  </si>
+  <si>
+    <t>Сушка VIVA 2-уровневая в базу 600/16, с рамкой, поддон 1 шт. (пластик), отделка сталь нержавеющая</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +165,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +219,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="26"/>
+      </left>
+      <right style="thin">
+        <color indexed="26"/>
+      </right>
+      <top style="thin">
+        <color indexed="26"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="26"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="26"/>
+      </left>
+      <right style="thin">
+        <color indexed="26"/>
+      </right>
+      <top style="thin">
+        <color indexed="26"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="26"/>
+      </left>
+      <right style="thin">
+        <color indexed="26"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="26"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{CC05A407-C232-435D-A587-A85009AD08F9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +596,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="96.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="13">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="9">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="13">
+        <v>6</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="13">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="13">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="5">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>